--- a/_process/遥感大模型论文2.xlsx
+++ b/_process/遥感大模型论文2.xlsx
@@ -8,87 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\资料\研一\项目\遥感大模型综述\github\IRIP-BUAA.github.io\_process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952162E0-58E5-4616-9DB1-E795ECD87ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7AAFE6-07B5-448F-AACD-1D7FFC109033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="2520" windowWidth="25575" windowHeight="12840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="1200" windowWidth="25575" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="智能表1" sheetId="2" r:id="rId1"/>
-    <sheet name="智能表2" sheetId="4" r:id="rId2"/>
+    <sheet name="智能表2" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="385">
   <si>
     <t>Paper</t>
   </si>
   <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>Visual Encoder</t>
-  </si>
-  <si>
-    <t>Text Encoder</t>
-  </si>
-  <si>
-    <t>Model Details</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Code/Project</t>
-  </si>
-  <si>
-    <t>Survey Inclusion</t>
-  </si>
-  <si>
     <t>Short Summary</t>
   </si>
   <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>Published in</t>
-  </si>
-  <si>
-    <t>MLLM</t>
-  </si>
-  <si>
     <t>Transformer</t>
   </si>
   <si>
-    <t>VLM</t>
-  </si>
-  <si>
-    <t>Agent</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Ship Detection</t>
-  </si>
-  <si>
     <t>CNN</t>
   </si>
   <si>
-    <t>Scene Classification</t>
-  </si>
-  <si>
-    <t>Image Caption</t>
-  </si>
-  <si>
-    <t>Image-text Retrieval</t>
-  </si>
-  <si>
     <t>Pretrain</t>
   </si>
   <si>
@@ -200,39 +145,6 @@
     <t>Classification, Object Detection</t>
   </si>
   <si>
-    <t>Image Caption, Visual Grounding, RS VQA</t>
-  </si>
-  <si>
-    <t>Scene Classification, RS VQA, Visual Grounding</t>
-  </si>
-  <si>
-    <t>Image Caption, RS VQA</t>
-  </si>
-  <si>
-    <t>CNN, Transformer</t>
-  </si>
-  <si>
-    <t>Image-text Retrieval, Scene Classification, Object Counting</t>
-  </si>
-  <si>
-    <t>Scene Classification, RS VQA, Semantic Segmentation, Image-text Retrieval</t>
-  </si>
-  <si>
-    <t>Scene Classification, Image Caption, Visual Grounding, RS VQA, Object Detection</t>
-  </si>
-  <si>
-    <t>Scene Classification, Image-text Retrieval</t>
-  </si>
-  <si>
-    <t>Scene Classification, Image-text Retrieval, Semantic Localization</t>
-  </si>
-  <si>
-    <t>Image Caption, Image-text Retrieval</t>
-  </si>
-  <si>
-    <t>Change Detection, Change Caption</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -1670,18 +1582,12 @@
     <t>Geography-aware self-supervised learning</t>
   </si>
   <si>
-    <t>ICCV 21</t>
-  </si>
-  <si>
     <t>利用随时间空间对齐的图像构建了对比学习中的时间正样本对，并利用地理定位设计了预文本任务</t>
   </si>
   <si>
     <t>Tile2Vec: Unsupervised representation learning for spatially distributed data</t>
   </si>
   <si>
-    <t>AAAI 19</t>
-  </si>
-  <si>
     <t>半监督，利用未标记数据</t>
   </si>
   <si>
@@ -1703,9 +1609,6 @@
     <t>TOV: The Original Vision Model for Optical Remote Sensing Image Understanding via Self-Supervised Learning</t>
   </si>
   <si>
-    <t>IEEE Journal of Selected Topics in Applied Earth Observations and Remote Sensing 23</t>
-  </si>
-  <si>
     <t>自监督</t>
   </si>
   <si>
@@ -1745,9 +1648,6 @@
     <t>SpectralGPT: Spectral Foundation Model</t>
   </si>
   <si>
-    <t>TPAMI2024</t>
-  </si>
-  <si>
     <t>自监督MAE，以渐进式训练方式在多个数据集上进行训练</t>
   </si>
   <si>
@@ -1781,9 +1681,6 @@
     <t>Functional Map of the World</t>
   </si>
   <si>
-    <t>CVPR 18</t>
-  </si>
-  <si>
     <t>数据集+有监督训练</t>
   </si>
   <si>
@@ -1919,9 +1816,6 @@
     <t>CMID: A Unified Self-Supervised Learning Framework for Remote Sensing Image Understanding</t>
   </si>
   <si>
-    <t>TGRS2023</t>
-  </si>
-  <si>
     <t>自监督，通过蒸馏将对比学习和掩码结合在一起</t>
   </si>
   <si>
@@ -1934,12 +1828,6 @@
     <t>对图片一个做增强一个做mask，经过网络后同时计算两个分支的contrastive loss和mask分支的regression loss。</t>
   </si>
   <si>
-    <t>Multi-Modal Multi-Objective Contrastive Learning for Sentinel-1/2 Imagery</t>
-  </si>
-  <si>
-    <t>CVPRW2023</t>
-  </si>
-  <si>
     <t>自监督，对比学习，多模态</t>
   </si>
   <si>
@@ -1955,9 +1843,6 @@
     <t>Change-Aware Sampling and Contrastive Learning for Satellite Images</t>
   </si>
   <si>
-    <t>CVPR2023</t>
-  </si>
-  <si>
     <t>CNN（ResNet-18, ResNet-50）</t>
   </si>
   <si>
@@ -1970,9 +1855,6 @@
     <t>SatlasPretrain: A Large-Scale Dataset for Remote Sensing Image Understanding</t>
   </si>
   <si>
-    <t>ICCV2023</t>
-  </si>
-  <si>
     <t>数据集，</t>
   </si>
   <si>
@@ -2024,9 +1906,6 @@
     <t>CROMA: Remote Sensing Representations with Contrastive Radar-Optical Masked Autoencoders</t>
   </si>
   <si>
-    <t>NeurIPS2023</t>
-  </si>
-  <si>
     <t>对比学习+重建，多光谱+孔径雷达</t>
   </si>
   <si>
@@ -2057,9 +1936,6 @@
     <t>DeCUR: decoupling common &amp; unique representations for multimodal self-supervision</t>
   </si>
   <si>
-    <t>Arxiv2023</t>
-  </si>
-  <si>
     <t>多模态，对比学习</t>
   </si>
   <si>
@@ -2129,9 +2005,6 @@
     <t>A Self-Supervised Cross-Modal Remote Sensing Foundation Model with Multi-Domain Representation and Cross-Domain Fusion</t>
   </si>
   <si>
-    <t>IGARSS2023</t>
-  </si>
-  <si>
     <t>多模态，对比学习+重建</t>
   </si>
   <si>
@@ -2141,9 +2014,6 @@
     <t>EarthPT: a foundation model for Earth Observation</t>
   </si>
   <si>
-    <t>NeurIPS2023 CCAI workshop</t>
-  </si>
-  <si>
     <t>关注时间序列，单像素时间预测</t>
   </si>
   <si>
@@ -2183,9 +2053,6 @@
     <t>Self-Supervised Spatio-Temporal Representation Learning of Satellite Image Time Series</t>
   </si>
   <si>
-    <t>JSTARS2024</t>
-  </si>
-  <si>
     <t>类似Bert的自监督预训练</t>
   </si>
   <si>
@@ -2195,9 +2062,6 @@
     <t>SwiMDiff: Scene-wide Matching Contrastive Learning with Diffusion Constraint for Remote Sensing Image</t>
   </si>
   <si>
-    <t>Arxiv2024</t>
-  </si>
-  <si>
     <t>对比学习，用同一场景下的图片构建了一个FNS，并用一个基于Diffussion的图像恢复任务做辅助任务</t>
   </si>
   <si>
@@ -2216,15 +2080,9 @@
     <t>Generative ConvNet Foundation Model With Sparse Modeling and Low-Frequency Reconstruction for Remote Sensing Image Interpretation</t>
   </si>
   <si>
-    <t>TGRS2024</t>
-  </si>
-  <si>
     <t>S2MAE: A Spatial-Spectral Pretraining Foundation Model for Spectral Remote Sensing Data</t>
   </si>
   <si>
-    <t>CVPR2024</t>
-  </si>
-  <si>
     <t>GeoSense的大型数据集，设计了一个稀疏建模和低频重建（SMLFR）框架，用于ConvNet基础模型的自监督表示学习。具体而言，在遮罩图像建模（MIM）中提出了一种稀疏建模策略，使ConvNet能够通过将未遮罩的补丁视为体素并对编码器进行稀疏化来处理可变长度序列。此外，我们设计了一个低频重建目标，引导模型关注遥感图像中的重要地物特征，同时减轻不必要的细节干扰。</t>
   </si>
   <si>
@@ -2267,9 +2125,6 @@
     <t>LeMeViT: Efficient Vision Transformer with Learnable Meta Tokens for Remote Sensing Image Interpretation</t>
   </si>
   <si>
-    <t>IJCAI2024</t>
-  </si>
-  <si>
     <t>改网络结构，加速</t>
   </si>
   <si>
@@ -2282,1199 +2137,10 @@
     <t>遥感基础模型发展综述与未来设想</t>
   </si>
   <si>
-    <t>遥感学报2023</t>
-  </si>
-  <si>
     <t>数据、方法和应用</t>
   </si>
   <si>
     <t>对比学习、生成式学习；图像，时间序列</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2401.09712</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/ZhanYang-nwpu/SkyEyeGPT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2311.15826</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/mbzuai-oryx/geochat</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2307.15266</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2306.11029</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/ChenDelong1999/RemoteCLIP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2312.06960</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2401.09083</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/HaonanGuo/Remote-Sensing-ChatGPT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2401.16822</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/wivizhang/EarthGPT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2312.12856</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/wangzhecheng/SkyScript</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2402.02544</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/NJU-LHRS/LHRS-Bot</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2403.20213</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/opendatalab/H2RSVLM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://www.mdpi.com/2072-4292/16/9/1477</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/BigData-KSU/RS-LLaVA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2305.14095</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/alinlab/s-clip</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2306.11300</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2305.01118</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://gengchenmai.github.io/csp-website/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2309.16020</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/VicenteVivan/geo-clip</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2311.17179</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/microsoft/satclip</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2310.04698</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2402.06475</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2403.03790</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/pdf/2209.02700</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2311.14656</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2310.06213</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/rohinmanvi/GeoLLM/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://www.sciencedirect.com/science/article/pii/S0303243422000678</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://ieeexplore.ieee.org/abstract/document/10066217</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://www.mdpi.com/2072-4292/15/3/579</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2304.01091</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/shizhenchang/chg2cap</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2312.01191</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/yangcong356/BITA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2403.19646</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/Chen-Yang-Liu/Change-Agent</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2405.00709</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2404.15500</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2308.12509</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://github.com/ZhanYang-nwpu/PE-RSITR</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/pdf/2405.04285.pdf</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://www.mdpi.com/2072-4292/15/13/3232</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2401.17600</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://vleo.danielz.ch/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://arxiv.org/abs/2312.17016</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <t>SkyEyeGPT: Unifying Remote Sensing Vision-Language Tasks via Instruction Tuning with Large Language Model</t>
-  </si>
-  <si>
-    <t>GeoChat: Grounded Large Vision-Language Model for Remote Sensing</t>
-  </si>
-  <si>
-    <t>RSGPT: A Remote Sensing Vision Language Model and Benchmark</t>
-  </si>
-  <si>
-    <t>RemoteCLIP: A Vision Language Foundation Model for Remote Sensing</t>
-  </si>
-  <si>
-    <t>awesome-remote-sensing-vision-language-models</t>
-  </si>
-  <si>
-    <t>TGRS 2024</t>
-  </si>
-  <si>
-    <t>Remote Sensing Vision-Language Foundation Models without Annotations via Ground Remote Alignment</t>
-  </si>
-  <si>
-    <t>Vision Encoder：CLIP ViT-B</t>
-  </si>
-  <si>
-    <t>介绍了一种在不使用任何文本注释，为遥感图像训练视觉语言模型的方法。关键是利用地面上拍摄的共同位置的互联网图像作为连接遥感图像和语言的中介</t>
-  </si>
-  <si>
-    <t>提出了一种训练遥感图像的视觉-语言模型的方法</t>
-  </si>
-  <si>
-    <t>ICLR 2024</t>
-  </si>
-  <si>
-    <t>Remote Sensing ChatGPT: Solving Remote Sensing Tasks with ChatGPT and Visual Models</t>
-  </si>
-  <si>
-    <t>gpt-3.5-turbo/gpt-4</t>
-  </si>
-  <si>
-    <t>IGARSS 2024</t>
-  </si>
-  <si>
-    <t>EarthGPT: A Universal Multi-modal Large Language Model for Multi-sensor Image Comprehension in Remote Sensing Domain</t>
-  </si>
-  <si>
-    <t>SkyScript: A Large and Semantically Diverse Vision-Language Dataset for Remote Sensing</t>
-  </si>
-  <si>
-    <t>主要是构建数据集</t>
-  </si>
-  <si>
-    <t>AAAI 2024</t>
-  </si>
-  <si>
-    <t>LHRS-Bot: Empowering Remote Sensing with VGI-Enhanced Large Multimodal Language Model</t>
-  </si>
-  <si>
-    <t>H2RSVLM: Towards Helpful and Honest Remote Sensing Large Vision Language Model</t>
-  </si>
-  <si>
-    <t>RS-LLaVA: Large Vision Language Model for Joint Captioning and Question Answering in Remote Sensing Imagery</t>
-  </si>
-  <si>
-    <t>RS 2024</t>
-  </si>
-  <si>
-    <t>S-CLIP: Semi-supervised Vision-Language Learning using Few Specialist Captions</t>
-  </si>
-  <si>
-    <t>(CLIP)</t>
-  </si>
-  <si>
-    <t>提出了一种半监督学习方法，用于在少量专家标注的字幕情况下训练CLIP模型。S-CLIP利用额外的未配对图像，并通过两种伪标签策略增强对比学习和语言模态的训练。</t>
-  </si>
-  <si>
-    <t>NeurIPS 2023</t>
-  </si>
-  <si>
-    <t>RS5M and GeoRSCLIP: A Large Scale Vision-Language Dataset and A Large Vision-Language Model for Remote Sensing</t>
-  </si>
-  <si>
-    <t>CSP: Self-Supervised Contrastive Spatial Pre-Training for Geospatial-Visual Representations</t>
-  </si>
-  <si>
-    <t>vision-location</t>
-  </si>
-  <si>
-    <t>ICML 2023</t>
-  </si>
-  <si>
-    <t>GeoCLIP: Clip-Inspired Alignment between Locations and Images for Effective Worldwide Geo-localization</t>
-  </si>
-  <si>
-    <t>Vision Encoder：CLIP ViT-L</t>
-  </si>
-  <si>
-    <t>SatCLIP: Global, General-Purpose Location Embeddings with Satellite Imagery</t>
-  </si>
-  <si>
-    <t>Tree-GPT: Modular Large Language Model Expert System for Forest Remote Sensing Image Understanding and Interactive Analysis</t>
-  </si>
-  <si>
-    <t>gpt-4</t>
-  </si>
-  <si>
-    <t>Large Language Models for Captioning and Retrieving Remote Sensing Images</t>
-  </si>
-  <si>
-    <t>Image Caption &amp; Text-image Retrieval</t>
-  </si>
-  <si>
-    <t>Popeye: A Unified Visual-Language Model for Multi-Source Ship Detection from Remote Sensing Imagery</t>
-  </si>
-  <si>
-    <t>Language-aware domain generalization network for cross-scene hyperspectral image classification</t>
-  </si>
-  <si>
-    <t>Vision-Language Models in Remote Sensing: Current Progress and Future Trends</t>
-  </si>
-  <si>
-    <t>Charting New Territories: Exploring the Geographic and Geospatial Capabilities of Multimodal LLMs</t>
-  </si>
-  <si>
-    <t>评估MLLM在遥感领域的能力</t>
-  </si>
-  <si>
-    <t>GeoLLM: Extracting Geospatial Knowledge from Large Language Models</t>
-  </si>
-  <si>
-    <t>RoBERTa、LLaMA-2、GPT-3.5</t>
-  </si>
-  <si>
-    <t>GeoLLM 提出了一种方法，可以从 LLMs 中提取大量的地理空间知识，并通过 OpenStreetMap 的辅助地图数据进行微调</t>
-  </si>
-  <si>
-    <t>Transforming remote sensing images to textual descriptions</t>
-  </si>
-  <si>
-    <t>INT J APPL EARTH OBS 2022</t>
-  </si>
-  <si>
-    <t>Vlca: vision-language aligning model with cross-modal attention for bilingual remote sensing image captioning</t>
-  </si>
-  <si>
-    <t>J SYST ENG ELECTRON 2023</t>
-  </si>
-  <si>
-    <t>Multi-source interactive stair attention for remote sensing image captioning</t>
-  </si>
-  <si>
-    <t>RS 2023</t>
-  </si>
-  <si>
-    <t>Changes to Captions: An Attentive Network for Remote Sensing Change Captioning</t>
-  </si>
-  <si>
-    <t>Bootstrapping Interactive Image-Text Alignment for Remote Sensing Image Captioning</t>
-  </si>
-  <si>
-    <t>Change-Agent: Towards Interactive Comprehensive Remote Sensing Change Interpretation and Analysis</t>
-  </si>
-  <si>
-    <t>Evaluating Tool-Augmented Agents in Remote Sensing Platforms</t>
-  </si>
-  <si>
-    <t>提出了一个新的基准测试GeoLLM-QA，用于评估和理解工具增强型LLMs在遥感平台上的性能和潜力</t>
-  </si>
-  <si>
-    <t>评估</t>
-  </si>
-  <si>
-    <t>ICLR 2024</t>
-  </si>
-  <si>
-    <t>GeoLLM-Engine: A Realistic Environment for Building Geospatial Copilots</t>
-  </si>
-  <si>
-    <t>Parameter-Efficient Transfer Learning for Remote Sensing Image-Text Retrieval</t>
-  </si>
-  <si>
-    <t>构建了一个新颖的PETL框架，用于RS图像-文本检索任务，其中包括预训练的CLIP、多模态遥感adapter和混合多模态对比（HMMC）学习目标</t>
-  </si>
-  <si>
-    <t>偏向PETL方向</t>
-  </si>
-  <si>
-    <t>TGRS 2023</t>
-  </si>
-  <si>
-    <t>The Potential of Visual ChatGPT for Remote Sensing</t>
-  </si>
-  <si>
-    <t>设计实验对Visual Chatgpt在遥感领域的能力进行了测试评估</t>
-  </si>
-  <si>
-    <t>Good at captioning, bad at counting: Benchmarking GPT-4V on Earth observation data</t>
-  </si>
-  <si>
-    <t>提出了一个benchmark，用于评估VLMs在地球观测数据上的表现，特别是在场景理解、定位和计数以及变化检测任务上</t>
-  </si>
-  <si>
-    <t>On the Promises and Challenges of Multimodal Foundation Models for Geographical, Environmental, Agricultural, and Urban Planning Applications</t>
-  </si>
-  <si>
-    <t>评估GPT-4V模型在地理、环境科学、农业和城市规划多个领域的能力</t>
-  </si>
-  <si>
-    <t>1.遥感领域的视觉语言指令数据集（SkyEye968k），包括单任务和多任务对话指令，包括968k条样本的指令跟随数据集2. 提出SkyEyeGPT模型，通过一个对齐层将RS视觉特征投影到语言领域后，它们与任务特定的指令一起被馈送到基于LLM的RS解码器中；设计了一个两阶段微调方法，第一阶段是遥感图文对齐，第二阶段是多任务对话微调</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vision Encoder：CLIP-ViTText Encoder： Vicuna-v1.5</t>
-  </si>
-  <si>
-    <t>1. RS多模态数据集：多模态数据集，且提出了一个生成数据的pipeline2. GeoChat：利用已有的数据微调LLaVA-1.5，利用lora微调；除了能够处理自然语言问题之外，用户还可以提供视觉提示（bounding box），并且模型能够回答有关ROI（指定感兴趣区域）的问题</t>
-  </si>
-  <si>
-    <t>Vision Encoder：EVAText Encoder：Vicuna</t>
-  </si>
-  <si>
-    <t>1. 提出RSICap数据集，基于 DOTA 目标检测数据集构建了 RSICap2. 提出RSIEval评估集3. RSGPT模型，现成的冻结的预训练图像编码器（EVA-G）和大型语言模型（vicuna7b，vicuna13b）构成了该模型的基础，并通过微调Q-Former和线性层结构</t>
-  </si>
-  <si>
-    <t>(CLIP)Vision Encoder:ResNet-50/ViT-Base/ViT-LargeText Encoder：Transformer Architecture</t>
-  </si>
-  <si>
-    <t>1. 在chatgpt的基础上构建了remote sensing chatgpt。工作流程包括提示模板生成、任务规划、任务执行和响应生成。    2. 针对LLM无法直接感知遥感图像，设计了visual cues，将视觉信息注入到chatgpt</t>
-  </si>
-  <si>
-    <t>Vision Encoder：DINOv2 ViT-L/14、CLIP ConvNeXt-LText Encoder：LLaMA-2</t>
-  </si>
-  <si>
-    <t>1. 提出了一种同一集成各种多传感器遥感解释任务的MLLM，EarthGPT，提出了视觉增强感知机制和跨模态相互理解的方法，最后提出了一种遥感领域的多传感器多任务的统一指令微调方法 2. 构建了最大的多模态多传感器的遥感指令跟随数据集MMRS-1M，由超过100万个图像文本对组成，包括有光学、合成孔径雷达（SAR）和红外图像</t>
-  </si>
-  <si>
-    <t>(CLIP)Vision Encoder: ViT-B/ViT-LText Encoder：Transformer Architecture</t>
-  </si>
-  <si>
-    <t>Vision Encoder：CLIP ViT-LText Encoder：LLaMA-2</t>
-  </si>
-  <si>
-    <t>1. 提出LHRS-Align数据集：大规模遥感领域的图像文本数据集，使用开源的全球地理数据生成的。2. 提出了LHRS-Instruct数据集，是一个专门为遥感图像理解定制的多模态指令跟随数据集。3. 在此基础上，提出了LHRS-Bot模型，采用了新的bridging strategy，并利用课程学习的方法来充分挖掘数据集种的内在知识4. 提出LHRS-Bench，用于对遥感领域的MLLM进行评估，包含690个单选题</t>
-  </si>
-  <si>
-    <t>Vision Encoder：CLIP ViT-LText Encoder：Vicuna-v1.5</t>
-  </si>
-  <si>
-    <t>1. 通过集成caption和VQA数据集，提出了一个遥感领域的指令微调数据集2. 基于LLaVA模型，通过使用遥感数据对模型进行预训练和lora微调得到了了RS-LLaVA</t>
-  </si>
-  <si>
-    <t>Vision Encoder：CLIP ViT-L、DINOv2 ViT-LText Encoder：LLaMA</t>
-  </si>
-  <si>
-    <t>1. 设计了一种image-to-caption的方法来统一各种船只检测数据集，基于现有的公开数据集构建了一个多模态多源指令跟随数据集MMShip（统一标记范式）  2. 提出Popeye架构，主要包括四个部分，统一标记范式、跨模态图像解释方法（通过多尺度多模态特征融合模块和视觉-语言对齐调整模块实现视觉-语言对齐，在 COCO Caption 数据集上对齐）、knowledge adaption paradigm（在 MMShip 数据集上进行船只领域适应阶段的训练）、与 SAM（Segment Anything Model）的集成</t>
-  </si>
-  <si>
-    <t>Vision Encoder：deep residual 3D CNN networkText Encoder：Transformer Architecture</t>
-  </si>
-  <si>
-    <t>Vision Encoder：ResNetText Encoder：Transformer Architecture</t>
-  </si>
-  <si>
-    <t>Vision Encoder：CLIP（ResNet50/ViT）Text Encoder：GPT-2</t>
-  </si>
-  <si>
-    <t>Vision Encoder：CLIP ViT-LText Encoder：OPT-2.7B</t>
-  </si>
-  <si>
-    <t>1. 创建了HqDC-1.4M数据集，还构建了两个指令微调数据集HqDC-Instruct和RS-Specialized-Instruct    2. 针对幻觉问题，构建了第一个遥感self-awareness数据集，RSSA。包含一系列可回答和不可回答的任务    3. 基于上述数据，通过预训练和监督微调两个步骤，基于LLaVA模型训练了H2RSVLM模型（helpfulness 和 honesty）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vision Encoder：EVA-CLIPText Encoder：LLaMA2-chat</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Published in</t>
@@ -3552,6 +2218,94 @@
   </si>
   <si>
     <t>有一些问题：1. 专注于预训练数据集的策划，往往过度采样城市等人口稠密地区，而在雨林、极地和海洋等人口稀少地区采样不足 2. 预训练数据集往往专注于中高分辨率的RGB和MSI，很少有大规模的数据集用于SAR、HSI或Lidar数据，或用于非常高或低分辨率的图像。像DOFA这样的多传感器模型很少见，大多数模型需要在每次遇到新的成像平台时从头训练 3. 时间序列地球观测建模也处于起步阶段，少有模型能够处理具有不规则间隔的可变长度图像序列。在地球观测中整合不确定性量化和物理一致性仍未得到充分探索。未来的发展：1.具有条件计算的动态编码器 2.多尺度的空间-时间分析 3.多模态学习框架 4.与大型语言模型的对齐 ...</t>
+  </si>
+  <si>
+    <t>ICCV 2021</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAAI 2019</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE Journal of Selected Topics in Applied Earth Observations and Remote Sensing 2023</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPAMI 2024</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVPR 2018</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TGRS 2023</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVPRW 2023</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVPR 2023</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICCV 2023</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arxiv 2023</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeurIPS 2023</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IGARSS 2023</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeurIPS CCAI workshop 2023</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSTARS 2024</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arxiv 2024</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TGRS 2024</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVPR 2024</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IJCAI 2024</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥感学报 2023</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi Modal Multi Objective Contrastive Learning for Sentinel 1-2 Imagery</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3960,1043 +2714,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J2" sqref="J2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="53"/>
-    <col min="2" max="12" width="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" t="s">
-        <v>390</v>
-      </c>
-      <c r="H2" t="s">
-        <v>391</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" t="s">
-        <v>392</v>
-      </c>
-      <c r="H3" t="s">
-        <v>393</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" t="s">
-        <v>394</v>
-      </c>
-      <c r="H4" t="s">
-        <v>395</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="F5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" t="s">
-        <v>396</v>
-      </c>
-      <c r="H5" t="s">
-        <v>397</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" t="s">
-        <v>398</v>
-      </c>
-      <c r="H6" t="s">
-        <v>399</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G7" t="s">
-        <v>400</v>
-      </c>
-      <c r="H7" t="s">
-        <v>401</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" t="s">
-        <v>402</v>
-      </c>
-      <c r="H8" t="s">
-        <v>403</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="F9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" t="s">
-        <v>404</v>
-      </c>
-      <c r="H9" t="s">
-        <v>405</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" t="s">
-        <v>406</v>
-      </c>
-      <c r="H10" t="s">
-        <v>407</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" t="s">
-        <v>408</v>
-      </c>
-      <c r="H11" t="s">
-        <v>409</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" t="s">
-        <v>410</v>
-      </c>
-      <c r="H12" t="s">
-        <v>411</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" t="s">
-        <v>412</v>
-      </c>
-      <c r="H13" t="s">
-        <v>413</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" t="s">
-        <v>414</v>
-      </c>
-      <c r="H14" t="s">
-        <v>415</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>416</v>
-      </c>
-      <c r="H15" t="s">
-        <v>417</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G16" t="s">
-        <v>418</v>
-      </c>
-      <c r="H16" t="s">
-        <v>419</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>420</v>
-      </c>
-      <c r="H17" t="s">
-        <v>421</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="G18" t="s">
-        <v>422</v>
-      </c>
-      <c r="H18" t="s">
-        <v>423</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" t="s">
-        <v>424</v>
-      </c>
-      <c r="H19" t="s">
-        <v>425</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>426</v>
-      </c>
-      <c r="H20" t="s">
-        <v>427</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>428</v>
-      </c>
-      <c r="H21" t="s">
-        <v>429</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>430</v>
-      </c>
-      <c r="H22" t="s">
-        <v>431</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="G23" t="s">
-        <v>432</v>
-      </c>
-      <c r="H23" t="s">
-        <v>433</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>434</v>
-      </c>
-      <c r="H24" t="s">
-        <v>435</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>436</v>
-      </c>
-      <c r="H25" t="s">
-        <v>437</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>438</v>
-      </c>
-      <c r="H26" t="s">
-        <v>439</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>440</v>
-      </c>
-      <c r="H27" t="s">
-        <v>441</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>442</v>
-      </c>
-      <c r="H28" t="s">
-        <v>443</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" t="s">
-        <v>444</v>
-      </c>
-      <c r="H29" t="s">
-        <v>445</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>446</v>
-      </c>
-      <c r="H30" t="s">
-        <v>447</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G31" t="s">
-        <v>448</v>
-      </c>
-      <c r="H31" t="s">
-        <v>449</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>450</v>
-      </c>
-      <c r="H32" t="s">
-        <v>451</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>452</v>
-      </c>
-      <c r="H33" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>454</v>
-      </c>
-      <c r="H34" t="s">
-        <v>455</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>456</v>
-      </c>
-      <c r="H35" t="s">
-        <v>457</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>458</v>
-      </c>
-      <c r="H36" t="s">
-        <v>459</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="G5" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="H5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="G7" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="H7" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="G8" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="H8" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="G9" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="H9" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="G10" r:id="rId15" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="H10" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="H11" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="G12" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="H12" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="G13" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="H13" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="G14" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="G15" r:id="rId24" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="H15" r:id="rId25" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="G16" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="H16" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="G17" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="H17" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="G18" r:id="rId30" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="G19" r:id="rId31" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="G20" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="G21" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="G22" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="G23" r:id="rId35" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="H23" r:id="rId36" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="G24" r:id="rId37" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="G25" r:id="rId38" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="G26" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="G27" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="H27" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="G28" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="H28" r:id="rId43" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="G29" r:id="rId44" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="H29" r:id="rId45" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="G30" r:id="rId46" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="G31" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="G32" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="H32" r:id="rId49" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="G33" r:id="rId50" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="G34" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="G35" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="H35" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="G36" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G5" sqref="G5"/>
+      <selection pane="topRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5010,1644 +2733,1665 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>383</v>
       </c>
       <c r="C1" t="s">
-        <v>551</v>
+        <v>341</v>
       </c>
       <c r="D1" t="s">
-        <v>552</v>
+        <v>342</v>
       </c>
       <c r="E1" t="s">
-        <v>553</v>
+        <v>343</v>
       </c>
       <c r="F1" t="s">
-        <v>554</v>
+        <v>344</v>
       </c>
       <c r="G1" t="s">
-        <v>555</v>
+        <v>345</v>
       </c>
       <c r="H1" t="s">
-        <v>556</v>
+        <v>346</v>
       </c>
       <c r="I1" t="s">
-        <v>557</v>
+        <v>347</v>
       </c>
       <c r="J1" t="s">
-        <v>558</v>
+        <v>348</v>
       </c>
       <c r="K1" t="s">
-        <v>559</v>
+        <v>349</v>
       </c>
       <c r="L1" t="s">
-        <v>560</v>
+        <v>350</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N1" t="s">
-        <v>561</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>562</v>
+        <v>352</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>189</v>
+        <v>47</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>363</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>192</v>
+        <v>49</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>200</v>
+        <v>53</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>214</v>
+        <v>61</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>563</v>
+        <v>353</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>564</v>
+        <v>354</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>226</v>
+        <v>69</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>565</v>
+        <v>355</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>566</v>
+        <v>356</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>567</v>
+        <v>357</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J27" t="s">
         <v>22</v>
       </c>
-      <c r="E27" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="J27" t="s">
-        <v>40</v>
-      </c>
       <c r="K27" s="1" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="J28" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="J29" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>269</v>
+        <v>97</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>274</v>
+      <c r="A31" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>275</v>
+        <v>99</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>369</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>281</v>
+        <v>101</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>370</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="H32" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="J32" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>286</v>
+        <v>103</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="H33" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>286</v>
+        <v>105</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="H34" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>568</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>286</v>
+        <v>107</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="H35" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>569</v>
+        <v>359</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>211</v>
+        <v>109</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>304</v>
+        <v>111</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="H37" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>304</v>
+        <v>113</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="H38" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>315</v>
+        <v>115</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="H39" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>315</v>
+        <v>117</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="J40" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>315</v>
+        <v>119</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="H41" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="J41" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>570</v>
+        <v>360</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="B42" t="s">
-        <v>150</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>315</v>
+        <v>121</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="H42" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="J42" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="B43" t="s">
-        <v>152</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>315</v>
+        <v>123</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="G43" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H43" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J43" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="B44" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>315</v>
+        <v>125</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="G44" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H44" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J44" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>339</v>
+        <v>127</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="D45" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="G45" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H45" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" t="s">
         <v>13</v>
       </c>
-      <c r="J45" t="s">
-        <v>31</v>
-      </c>
       <c r="M45" s="1" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>343</v>
+        <v>129</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="G46" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H46" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>571</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="B47" t="s">
-        <v>160</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>315</v>
+        <v>131</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="G47" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>315</v>
+        <v>133</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="G48" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>315</v>
+        <v>135</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H49" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J49" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="B50" t="s">
-        <v>166</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>354</v>
+        <v>137</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>358</v>
+        <v>139</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="D51" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="H51" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>358</v>
+        <v>141</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="G52" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H52" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="B53" t="s">
-        <v>172</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>365</v>
+        <v>143</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="B54" t="s">
-        <v>174</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>367</v>
+        <v>145</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="H54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" t="s">
         <v>36</v>
       </c>
-      <c r="J54" t="s">
-        <v>54</v>
-      </c>
       <c r="M54" s="1" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="B55" t="s">
-        <v>175</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>367</v>
+        <v>146</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="D55" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="J55" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="B56" t="s">
-        <v>176</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>367</v>
+        <v>147</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D56" t="s">
+        <v>382</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="G56" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H56" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="J56" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="B57" t="s">
-        <v>177</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>358</v>
+        <v>148</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D57" t="s">
+        <v>382</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="G57" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H57" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>376</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>358</v>
+      <c r="D58" t="s">
+        <v>382</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="H58" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>358</v>
+        <v>332</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D59" t="s">
+        <v>382</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J59" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C60" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D60" t="s">
         <v>382</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>358</v>
+        <v>336</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D61" t="s">
+        <v>382</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>572</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>387</v>
+        <v>338</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D62" t="s">
+        <v>382</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
